--- a/Projects/CCBZA/Data/Template_L&T_November.xlsx
+++ b/Projects/CCBZA/Data/Template_L&T_November.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,6 +23,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Price!$A$1:$Q$76</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Price!$A$1:$Q$76</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Price!$A$1:$Q$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Price!$A$1:$Q$76</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="dcsvx" vbProcedure="false">Availability!$A$1:$S$70</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="hgf" vbProcedure="false">Availability!$A$1:$S$70</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$98</definedName>
@@ -31,6 +32,7 @@
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$98</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$98</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$S$98</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$S$98</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -756,9 +758,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -921,7 +924,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1020,6 +1023,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1157,25 +1164,25 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.2093023255814"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.1953488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.8883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.89302325581395"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.2418604651163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.1953488372093"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="39.7488372093023"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.3953488372093"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.4418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.4418604651163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5488372093023"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.9953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.01395348837209"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.4697674418605"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.0604651162791"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="40.8558139534884"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.0139534883721"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="36.5488372093023"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1583,21 +1590,21 @@
   </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.9953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.13953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.01395348837209"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.13953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,33 +1655,33 @@
   </sheetPr>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="B75" activeCellId="0" sqref="B75"/>
+      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="B71" activeCellId="0" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.5116279069767"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.47441860465116"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="158.502325581395"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.13953488372093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.13953488372093"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="35.6883720930233"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="91.4372093023256"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8511627906977"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="163.302325581395"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="36.7953488372093"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="94.1441860465116"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4679,24 +4686,24 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I47" activeCellId="0" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.4093023255814"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.6883720930233"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.0093023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.7953488372093"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5524,7 +5531,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
         <v>33</v>
       </c>
@@ -5550,7 +5557,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>33</v>
       </c>
@@ -5578,8 +5585,10 @@
       <c r="I34" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K34" s="12"/>
+      <c r="L34" s="25"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>33</v>
       </c>
@@ -5607,8 +5616,10 @@
       <c r="I35" s="12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K35" s="12"/>
+      <c r="L35" s="25"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>33</v>
       </c>
@@ -5636,8 +5647,10 @@
       <c r="I36" s="0" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K36" s="12"/>
+      <c r="L36" s="25"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>33</v>
       </c>
@@ -5665,8 +5678,10 @@
       <c r="I37" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K37" s="12"/>
+      <c r="L37" s="25"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>33</v>
       </c>
@@ -5694,8 +5709,10 @@
       <c r="I38" s="12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K38" s="12"/>
+      <c r="L38" s="25"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>33</v>
       </c>
@@ -5723,8 +5740,10 @@
       <c r="I39" s="0" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K39" s="12"/>
+      <c r="L39" s="25"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>33</v>
       </c>
@@ -5752,8 +5771,10 @@
       <c r="I40" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K40" s="12"/>
+      <c r="L40" s="25"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>33</v>
       </c>
@@ -5781,8 +5802,10 @@
       <c r="I41" s="12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K41" s="12"/>
+      <c r="L41" s="25"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>33</v>
       </c>
@@ -5810,8 +5833,10 @@
       <c r="I42" s="0" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K42" s="12"/>
+      <c r="L42" s="25"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>33</v>
       </c>
@@ -5839,8 +5864,10 @@
       <c r="I43" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K43" s="12"/>
+      <c r="L43" s="25"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>33</v>
       </c>
@@ -5868,8 +5895,10 @@
       <c r="I44" s="12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K44" s="12"/>
+      <c r="L44" s="25"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>33</v>
       </c>
@@ -5898,7 +5927,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>33</v>
       </c>
@@ -5920,14 +5949,14 @@
       <c r="G46" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="12" t="s">
-        <v>89</v>
+      <c r="H46" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>33</v>
       </c>
@@ -5949,14 +5978,14 @@
       <c r="G47" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H47" s="12" t="s">
-        <v>89</v>
+      <c r="H47" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>33</v>
       </c>
@@ -5978,14 +6007,14 @@
       <c r="G48" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H48" s="12" t="s">
-        <v>89</v>
+      <c r="H48" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="I48" s="0" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>33</v>
       </c>
@@ -6014,7 +6043,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>33</v>
       </c>
@@ -6043,7 +6072,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>33</v>
       </c>
@@ -6091,31 +6120,31 @@
   </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.1953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.6511627906977"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.9023255813953"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.0697674418605"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.2744186046512"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.9488372093023"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.4883720930233"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.2418604651163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.2744186046512"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.9488372093023"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="32.4883720930233"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.01395348837209"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.5488372093023"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.9906976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.7674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.6697674418605"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.1348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.8139534883721"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.9813953488372"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.1348837209302"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.8139534883721"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.13953488372093"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6234,33 +6263,33 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7953488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.13953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.01395348837209"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.6883720930233"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.13953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.7953488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -6286,13 +6315,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>150</v>
       </c>
       <c r="D2" s="0" t="n">
@@ -6319,16 +6348,16 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="28" t="n">
+      <c r="D3" s="29" t="n">
         <v>2</v>
       </c>
       <c r="E3" s="23" t="n">
@@ -6351,13 +6380,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>152</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -6383,13 +6412,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>150</v>
       </c>
       <c r="D5" s="0" t="n">
@@ -6415,16 +6444,16 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="28" t="n">
+      <c r="D6" s="29" t="n">
         <v>2</v>
       </c>
       <c r="E6" s="23" t="n">
@@ -6447,13 +6476,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>152</v>
       </c>
       <c r="D7" s="0" t="n">
@@ -6479,13 +6508,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="0" t="n">
@@ -6511,16 +6540,16 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="28" t="n">
+      <c r="D9" s="29" t="n">
         <v>2</v>
       </c>
       <c r="E9" s="23" t="n">
@@ -6543,13 +6572,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>152</v>
       </c>
       <c r="D10" s="0" t="n">
@@ -6575,13 +6604,13 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>150</v>
       </c>
       <c r="D11" s="0" t="n">
@@ -6607,16 +6636,16 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="28" t="n">
+      <c r="D12" s="29" t="n">
         <v>2</v>
       </c>
       <c r="E12" s="23" t="n">
@@ -6639,13 +6668,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>152</v>
       </c>
       <c r="D13" s="0" t="n">
@@ -6671,13 +6700,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>150</v>
       </c>
       <c r="D14" s="0" t="n">
@@ -6703,16 +6732,16 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="27" t="s">
+      <c r="B15" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="28" t="n">
+      <c r="D15" s="29" t="n">
         <v>2</v>
       </c>
       <c r="E15" s="23" t="n">
@@ -6735,13 +6764,13 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>152</v>
       </c>
       <c r="D16" s="0" t="n">
@@ -6767,13 +6796,13 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="26" t="s">
+      <c r="B17" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>150</v>
       </c>
       <c r="D17" s="0" t="n">
@@ -6799,16 +6828,16 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="28" t="n">
+      <c r="D18" s="29" t="n">
         <v>2</v>
       </c>
       <c r="E18" s="23" t="n">
@@ -6831,13 +6860,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="26" t="s">
+      <c r="B19" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>152</v>
       </c>
       <c r="D19" s="0" t="n">
@@ -6881,25 +6910,25 @@
   </sheetPr>
   <dimension ref="A1:S65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H77" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
       <selection pane="bottomRight" activeCell="C102" activeCellId="0" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.47441860465116"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.9302325581395"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="124.906976744186"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.2418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.6558139534884"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="128.6"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.9813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6977,7 +7006,7 @@
       <c r="E2" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>158</v>
       </c>
       <c r="G2" s="12" t="s">
@@ -7032,7 +7061,7 @@
       <c r="R3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="31" t="s">
         <v>163</v>
       </c>
     </row>
@@ -7052,7 +7081,7 @@
       <c r="E4" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="32" t="s">
         <v>166</v>
       </c>
       <c r="K4" s="12" t="n">
@@ -7099,7 +7128,7 @@
       <c r="E5" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="32" t="s">
         <v>166</v>
       </c>
       <c r="K5" s="12" t="n">
@@ -7146,7 +7175,7 @@
       <c r="E6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="32" t="s">
         <v>166</v>
       </c>
       <c r="K6" s="12" t="n">
@@ -7193,7 +7222,7 @@
       <c r="E7" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="32" t="s">
         <v>169</v>
       </c>
       <c r="L7" s="9" t="n">
@@ -7237,7 +7266,7 @@
       <c r="E8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="32" t="s">
         <v>169</v>
       </c>
       <c r="G8" s="12"/>
@@ -7285,7 +7314,7 @@
       <c r="E9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="32" t="s">
         <v>169</v>
       </c>
       <c r="L9" s="9" t="n">
@@ -7329,7 +7358,7 @@
       <c r="E10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="33" t="s">
         <v>171</v>
       </c>
       <c r="G10" s="12"/>
@@ -7377,7 +7406,7 @@
       <c r="E11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="33" t="s">
         <v>173</v>
       </c>
       <c r="L11" s="9" t="n">
@@ -7418,7 +7447,7 @@
       <c r="E12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="33" t="s">
         <v>80</v>
       </c>
       <c r="K12" s="12" t="n">
@@ -7460,7 +7489,7 @@
       <c r="E13" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="33" t="s">
         <v>178</v>
       </c>
       <c r="L13" s="9" t="n">
@@ -7677,7 +7706,7 @@
       <c r="E18" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="32" t="s">
         <v>166</v>
       </c>
       <c r="K18" s="12" t="n">
@@ -7724,7 +7753,7 @@
       <c r="E19" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="32" t="s">
         <v>166</v>
       </c>
       <c r="G19" s="12"/>
@@ -7775,7 +7804,7 @@
       <c r="E20" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="32" t="s">
         <v>166</v>
       </c>
       <c r="K20" s="12" t="n">
@@ -7822,7 +7851,7 @@
       <c r="E21" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="32" t="s">
         <v>169</v>
       </c>
       <c r="L21" s="9" t="n">
@@ -7866,7 +7895,7 @@
       <c r="E22" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="32" t="s">
         <v>169</v>
       </c>
       <c r="L22" s="9" t="n">
@@ -7910,7 +7939,7 @@
       <c r="E23" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="32" t="s">
         <v>169</v>
       </c>
       <c r="K23" s="12" t="n">
@@ -7957,7 +7986,7 @@
       <c r="E24" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="33" t="s">
         <v>171</v>
       </c>
       <c r="K24" s="12" t="n">
@@ -8001,7 +8030,7 @@
       <c r="E25" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="33" t="s">
         <v>173</v>
       </c>
       <c r="L25" s="9" t="n">
@@ -8042,7 +8071,7 @@
       <c r="E26" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="33" t="s">
         <v>80</v>
       </c>
       <c r="K26" s="12" t="n">
@@ -8084,7 +8113,7 @@
       <c r="E27" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="33" t="s">
         <v>178</v>
       </c>
       <c r="L27" s="9" t="n">
@@ -8930,7 +8959,7 @@
       <c r="E46" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F46" s="32" t="s">
+      <c r="F46" s="33" t="s">
         <v>207</v>
       </c>
       <c r="L46" s="9" t="n">
@@ -9779,7 +9808,7 @@
       <c r="E65" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F65" s="32" t="s">
+      <c r="F65" s="33" t="s">
         <v>178</v>
       </c>
       <c r="L65" s="9" t="n">
@@ -11258,47 +11287,47 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" s="33" customFormat="true" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="33" t="s">
+    <row r="99" s="34" customFormat="true" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B99" s="33" t="s">
+      <c r="B99" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="C99" s="33" t="s">
+      <c r="C99" s="34" t="s">
         <v>230</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E99" s="33" t="s">
+      <c r="E99" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="F99" s="34" t="s">
+      <c r="F99" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="G99" s="35" t="s">
+      <c r="G99" s="36" t="s">
         <v>60</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="I99" s="33" t="s">
+      <c r="I99" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="J99" s="36" t="s">
+      <c r="J99" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="L99" s="33" t="n">
+      <c r="L99" s="34" t="n">
         <v>2</v>
       </c>
       <c r="N99" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="Q99" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="R99" s="33" t="s">
+      <c r="Q99" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="R99" s="34" t="s">
         <v>16</v>
       </c>
       <c r="S99" s="0"/>

--- a/Projects/CCBZA/Data/Template_L&T_November.xlsx
+++ b/Projects/CCBZA/Data/Template_L&T_November.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,22 +17,20 @@
     <sheet name="Availability" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$98</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$99</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Price!$A$1:$Q$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Price!$A$1:$Q$50</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="lkjj" vbProcedure="false">Price!$A$1:$Q$50</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Price!$A$1:$Q$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0" vbProcedure="false">Price!$A$1:$Q$76</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Price!$A$1:$Q$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Price!$A$1:$Q$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Price!$A$1:$Q$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Price!$A$1:$Q$76</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="dcsvx" vbProcedure="false">Availability!$A$1:$S$70</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="hgf" vbProcedure="false">Availability!$A$1:$S$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="ykmjh" vbProcedure="false">Availability!$A$1:$S$98</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$98</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$S$98</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$S$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$98</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$98</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$S$98</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$S$98</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_hk" vbProcedure="false">Availability!$A$1:$S$98</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$99</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -541,34 +539,34 @@
     <t xml:space="preserve">SSD IC Availabilty of 200ml CAN, 300 ml PET  (CC, SP,FA, ST)</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000011114, 5449000018601, 5449000159151, 5449000247285, 5449000246264, 90338052, 90377235, 5449000234582, 40822327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All recognized KO Products should have at least 2 facings in ALL of the scene types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Diets Availability of 300 ml PET (CZ)  200ml CAN (CZ,STZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90375149, 5449000052131, 5449000246295, 5449000052131, 5449000224422, 5449000224453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD FC Availability of 1.25L,1.5L (CC, SP,FA, ST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000009746,5449000025234,5449000027559,6001134705506,5449000000439,5449000234629,5449000052926,5449000180919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD FC Diets Availability of: 1.5L in (CZ,STZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000180896,5449000133335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills - Energy Burn 500ml Availability</t>
+  </si>
+  <si>
     <t xml:space="preserve">Availability SKU facing Or</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000011114, 5449000018601, 5449000159151, 5449000247285, 5449000246264, 90338052, 90377235, 5449000234582, 40822327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All recognized KO Products should have at least 2 facings in ALL of the scene types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC Diets Availability of 300 ml PET (CZ)  200ml CAN (CZ,STZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90375149, 5449000052131, 5449000246295, 5449000052131, 5449000224422, 5449000224453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD FC Availability of 1.25L,1.5L (CC, SP,FA, ST)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000009746,5449000025234,5449000027559,6001134705506,5449000000439,5449000234629,5449000052926,5449000180919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD FC Diets Availability of: 1.5L in (CZ,STZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000180896,5449000133335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills - Energy Burn 500ml Availability</t>
   </si>
   <si>
     <t xml:space="preserve">Energy Pricing Poster</t>
@@ -758,10 +756,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -924,7 +921,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1023,10 +1020,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1164,7 +1157,7 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1590,7 +1583,7 @@
   </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1655,15 +1648,15 @@
   </sheetPr>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="B71" activeCellId="0" sqref="B71"/>
+      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="B75" activeCellId="0" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2744186046512"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8511627906977"/>
@@ -4686,13 +4679,13 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I47" activeCellId="0" sqref="I47"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10697674418605"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.0093023255814"/>
@@ -5531,7 +5524,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
         <v>33</v>
       </c>
@@ -5557,7 +5550,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>33</v>
       </c>
@@ -5585,10 +5578,8 @@
       <c r="I34" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K34" s="12"/>
-      <c r="L34" s="25"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>33</v>
       </c>
@@ -5616,10 +5607,8 @@
       <c r="I35" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="25"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>33</v>
       </c>
@@ -5647,10 +5636,8 @@
       <c r="I36" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="K36" s="12"/>
-      <c r="L36" s="25"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>33</v>
       </c>
@@ -5678,10 +5665,8 @@
       <c r="I37" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K37" s="12"/>
-      <c r="L37" s="25"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>33</v>
       </c>
@@ -5709,10 +5694,8 @@
       <c r="I38" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="K38" s="12"/>
-      <c r="L38" s="25"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>33</v>
       </c>
@@ -5740,10 +5723,8 @@
       <c r="I39" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="K39" s="12"/>
-      <c r="L39" s="25"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>33</v>
       </c>
@@ -5771,10 +5752,8 @@
       <c r="I40" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K40" s="12"/>
-      <c r="L40" s="25"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>33</v>
       </c>
@@ -5802,10 +5781,8 @@
       <c r="I41" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="K41" s="12"/>
-      <c r="L41" s="25"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>33</v>
       </c>
@@ -5833,10 +5810,8 @@
       <c r="I42" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="K42" s="12"/>
-      <c r="L42" s="25"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>33</v>
       </c>
@@ -5864,10 +5839,8 @@
       <c r="I43" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K43" s="12"/>
-      <c r="L43" s="25"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>33</v>
       </c>
@@ -5895,10 +5868,8 @@
       <c r="I44" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="K44" s="12"/>
-      <c r="L44" s="25"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>33</v>
       </c>
@@ -5927,7 +5898,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>33</v>
       </c>
@@ -5956,7 +5927,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>33</v>
       </c>
@@ -5985,7 +5956,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>33</v>
       </c>
@@ -6014,7 +5985,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>33</v>
       </c>
@@ -6043,7 +6014,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>33</v>
       </c>
@@ -6072,7 +6043,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>33</v>
       </c>
@@ -6120,11 +6091,11 @@
   </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.5488372093023"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.9906976744186"/>
@@ -6263,7 +6234,7 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6283,13 +6254,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -6315,13 +6286,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D2" s="0" t="n">
@@ -6348,16 +6319,16 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="29" t="n">
+      <c r="D3" s="28" t="n">
         <v>2</v>
       </c>
       <c r="E3" s="23" t="n">
@@ -6380,13 +6351,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>152</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -6412,13 +6383,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D5" s="0" t="n">
@@ -6444,16 +6415,16 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="29" t="n">
+      <c r="D6" s="28" t="n">
         <v>2</v>
       </c>
       <c r="E6" s="23" t="n">
@@ -6476,13 +6447,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>152</v>
       </c>
       <c r="D7" s="0" t="n">
@@ -6508,13 +6479,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="0" t="n">
@@ -6540,16 +6511,16 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="29" t="n">
+      <c r="D9" s="28" t="n">
         <v>2</v>
       </c>
       <c r="E9" s="23" t="n">
@@ -6572,13 +6543,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>152</v>
       </c>
       <c r="D10" s="0" t="n">
@@ -6604,13 +6575,13 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D11" s="0" t="n">
@@ -6636,16 +6607,16 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="28" t="s">
+      <c r="B12" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="29" t="n">
+      <c r="D12" s="28" t="n">
         <v>2</v>
       </c>
       <c r="E12" s="23" t="n">
@@ -6668,13 +6639,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>152</v>
       </c>
       <c r="D13" s="0" t="n">
@@ -6700,13 +6671,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D14" s="0" t="n">
@@ -6732,16 +6703,16 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="29" t="n">
+      <c r="D15" s="28" t="n">
         <v>2</v>
       </c>
       <c r="E15" s="23" t="n">
@@ -6764,13 +6735,13 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>152</v>
       </c>
       <c r="D16" s="0" t="n">
@@ -6796,13 +6767,13 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D17" s="0" t="n">
@@ -6828,16 +6799,16 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="28" t="s">
+      <c r="B18" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="29" t="n">
+      <c r="D18" s="28" t="n">
         <v>2</v>
       </c>
       <c r="E18" s="23" t="n">
@@ -6860,13 +6831,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>152</v>
       </c>
       <c r="D19" s="0" t="n">
@@ -6908,27 +6879,30 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S65536"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
-      <selection pane="bottomRight" activeCell="C102" activeCellId="0" sqref="C102"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K29" activeCellId="0" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.506976744186"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.6558139534884"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9813953488372"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6139534883721"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.35348837209302"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="10" width="128.6"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.6"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.9813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7006,7 +6980,7 @@
       <c r="E2" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>158</v>
       </c>
       <c r="G2" s="12" t="s">
@@ -7061,7 +7035,7 @@
       <c r="R3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="30" t="s">
         <v>163</v>
       </c>
     </row>
@@ -7072,20 +7046,17 @@
       <c r="B4" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>165</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="K4" s="12" t="n">
-        <v>1</v>
       </c>
       <c r="L4" s="9" t="n">
         <v>2</v>
@@ -7109,7 +7080,7 @@
         <v>15</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7119,21 +7090,19 @@
       <c r="B5" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="K5" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K5" s="12"/>
       <c r="L5" s="9" t="n">
         <v>2</v>
       </c>
@@ -7156,7 +7125,7 @@
         <v>15</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" s="12" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7166,20 +7135,17 @@
       <c r="B6" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>165</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="K6" s="12" t="n">
-        <v>1</v>
       </c>
       <c r="L6" s="9" t="n">
         <v>2</v>
@@ -7203,7 +7169,7 @@
         <v>15</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7211,7 +7177,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>162</v>
@@ -7222,8 +7188,8 @@
       <c r="E7" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>169</v>
+      <c r="F7" s="31" t="s">
+        <v>168</v>
       </c>
       <c r="L7" s="9" t="n">
         <v>2</v>
@@ -7247,7 +7213,7 @@
         <v>15</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7255,7 +7221,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>162</v>
@@ -7266,8 +7232,8 @@
       <c r="E8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="32" t="s">
-        <v>169</v>
+      <c r="F8" s="31" t="s">
+        <v>168</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -7295,7 +7261,7 @@
         <v>15</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7303,7 +7269,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>162</v>
@@ -7314,8 +7280,8 @@
       <c r="E9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="32" t="s">
-        <v>169</v>
+      <c r="F9" s="31" t="s">
+        <v>168</v>
       </c>
       <c r="L9" s="9" t="n">
         <v>2</v>
@@ -7339,7 +7305,7 @@
         <v>15</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7347,27 +7313,25 @@
         <v>21</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="32" t="s">
         <v>170</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>171</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K10" s="12"/>
       <c r="L10" s="9" t="n">
         <v>2</v>
       </c>
@@ -7387,7 +7351,7 @@
         <v>15</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7395,7 +7359,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>162</v>
@@ -7406,8 +7370,8 @@
       <c r="E11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>173</v>
+      <c r="F11" s="32" t="s">
+        <v>172</v>
       </c>
       <c r="L11" s="9" t="n">
         <v>2</v>
@@ -7428,7 +7392,7 @@
         <v>15</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7436,18 +7400,18 @@
         <v>23</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>165</v>
-      </c>
       <c r="D12" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K12" s="12" t="n">
@@ -7470,7 +7434,7 @@
         <v>15</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7489,7 +7453,7 @@
       <c r="E13" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="32" t="s">
         <v>178</v>
       </c>
       <c r="L13" s="9" t="n">
@@ -7522,7 +7486,7 @@
         <v>180</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>59</v>
@@ -7566,7 +7530,7 @@
         <v>183</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>59</v>
@@ -7610,7 +7574,7 @@
         <v>185</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>59</v>
@@ -7654,7 +7618,7 @@
         <v>186</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>59</v>
@@ -7697,20 +7661,17 @@
       <c r="B18" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="31" t="s">
         <v>165</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="K18" s="12" t="n">
-        <v>1</v>
       </c>
       <c r="L18" s="9" t="n">
         <v>2</v>
@@ -7734,7 +7695,7 @@
         <v>15</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7744,25 +7705,23 @@
       <c r="B19" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="31" t="s">
         <v>165</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>166</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K19" s="12"/>
       <c r="L19" s="9" t="n">
         <v>2</v>
       </c>
@@ -7785,7 +7744,7 @@
         <v>15</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7795,21 +7754,19 @@
       <c r="B20" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="K20" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K20" s="12"/>
       <c r="L20" s="9" t="n">
         <v>2</v>
       </c>
@@ -7832,7 +7789,7 @@
         <v>15</v>
       </c>
       <c r="S20" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7840,7 +7797,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>162</v>
@@ -7851,8 +7808,8 @@
       <c r="E21" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="32" t="s">
-        <v>169</v>
+      <c r="F21" s="31" t="s">
+        <v>168</v>
       </c>
       <c r="L21" s="9" t="n">
         <v>2</v>
@@ -7876,7 +7833,7 @@
         <v>15</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7884,7 +7841,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>162</v>
@@ -7895,8 +7852,8 @@
       <c r="E22" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="32" t="s">
-        <v>169</v>
+      <c r="F22" s="31" t="s">
+        <v>168</v>
       </c>
       <c r="L22" s="9" t="n">
         <v>2</v>
@@ -7920,7 +7877,7 @@
         <v>15</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7928,23 +7885,21 @@
         <v>20</v>
       </c>
       <c r="B23" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="K23" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K23" s="12"/>
       <c r="L23" s="9" t="n">
         <v>2</v>
       </c>
@@ -7967,7 +7922,7 @@
         <v>15</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7975,23 +7930,21 @@
         <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="K24" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K24" s="12"/>
       <c r="L24" s="9" t="n">
         <v>2</v>
       </c>
@@ -8011,7 +7964,7 @@
         <v>15</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8019,7 +7972,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>162</v>
@@ -8030,8 +7983,8 @@
       <c r="E25" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>173</v>
+      <c r="F25" s="32" t="s">
+        <v>172</v>
       </c>
       <c r="L25" s="9" t="n">
         <v>2</v>
@@ -8052,7 +8005,7 @@
         <v>15</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8060,18 +8013,18 @@
         <v>23</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>165</v>
-      </c>
       <c r="D26" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K26" s="12" t="n">
@@ -8094,10 +8047,10 @@
         <v>15</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
         <v>24</v>
       </c>
@@ -8113,7 +8066,7 @@
       <c r="E27" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="32" t="s">
         <v>178</v>
       </c>
       <c r="L27" s="9" t="n">
@@ -8146,7 +8099,7 @@
         <v>180</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>59</v>
@@ -8190,7 +8143,7 @@
         <v>183</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>59</v>
@@ -8234,7 +8187,7 @@
         <v>185</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>59</v>
@@ -8278,7 +8231,7 @@
         <v>186</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>59</v>
@@ -8362,8 +8315,8 @@
       <c r="B33" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>165</v>
+      <c r="C33" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>59</v>
@@ -8374,9 +8327,7 @@
       <c r="F33" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="K33" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K33" s="12"/>
       <c r="L33" s="15" t="n">
         <v>2</v>
       </c>
@@ -8399,7 +8350,7 @@
         <v>15</v>
       </c>
       <c r="S33" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8409,8 +8360,8 @@
       <c r="B34" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>165</v>
+      <c r="C34" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>59</v>
@@ -8421,9 +8372,7 @@
       <c r="F34" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K34" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K34" s="12"/>
       <c r="L34" s="15" t="n">
         <v>2</v>
       </c>
@@ -8446,7 +8395,7 @@
         <v>15</v>
       </c>
       <c r="S34" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8456,8 +8405,8 @@
       <c r="B35" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>165</v>
+      <c r="C35" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>59</v>
@@ -8468,9 +8417,7 @@
       <c r="F35" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K35" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K35" s="12"/>
       <c r="L35" s="15" t="n">
         <v>2</v>
       </c>
@@ -8493,7 +8440,7 @@
         <v>15</v>
       </c>
       <c r="S35" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8537,7 +8484,7 @@
         <v>15</v>
       </c>
       <c r="S36" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8581,7 +8528,7 @@
         <v>15</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8625,7 +8572,7 @@
         <v>15</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8635,8 +8582,8 @@
       <c r="B39" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>165</v>
+      <c r="C39" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>59</v>
@@ -8647,9 +8594,7 @@
       <c r="F39" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="K39" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K39" s="12"/>
       <c r="L39" s="15" t="n">
         <v>2</v>
       </c>
@@ -8672,7 +8617,7 @@
         <v>15</v>
       </c>
       <c r="S39" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8682,8 +8627,8 @@
       <c r="B40" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>165</v>
+      <c r="C40" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>59</v>
@@ -8694,9 +8639,7 @@
       <c r="F40" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="K40" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K40" s="12"/>
       <c r="L40" s="15" t="n">
         <v>2</v>
       </c>
@@ -8719,7 +8662,7 @@
         <v>15</v>
       </c>
       <c r="S40" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8729,8 +8672,8 @@
       <c r="B41" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>165</v>
+      <c r="C41" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>59</v>
@@ -8741,9 +8684,7 @@
       <c r="F41" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="K41" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K41" s="12"/>
       <c r="L41" s="15" t="n">
         <v>2</v>
       </c>
@@ -8766,7 +8707,7 @@
         <v>15</v>
       </c>
       <c r="S41" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8776,8 +8717,8 @@
       <c r="B42" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>162</v>
+      <c r="C42" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>59</v>
@@ -8788,6 +8729,9 @@
       <c r="F42" s="22" t="s">
         <v>203</v>
       </c>
+      <c r="K42" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="L42" s="15" t="n">
         <v>2</v>
       </c>
@@ -8810,7 +8754,7 @@
         <v>15</v>
       </c>
       <c r="S42" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8820,8 +8764,8 @@
       <c r="B43" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>162</v>
+      <c r="C43" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>59</v>
@@ -8830,7 +8774,10 @@
         <v>65</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="K43" s="12" t="n">
+        <v>1</v>
       </c>
       <c r="L43" s="15" t="n">
         <v>2</v>
@@ -8854,7 +8801,7 @@
         <v>15</v>
       </c>
       <c r="S43" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8864,8 +8811,8 @@
       <c r="B44" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>162</v>
+      <c r="C44" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>59</v>
@@ -8874,7 +8821,10 @@
         <v>65</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="K44" s="12" t="n">
+        <v>1</v>
       </c>
       <c r="L44" s="15" t="n">
         <v>2</v>
@@ -8898,7 +8848,7 @@
         <v>15</v>
       </c>
       <c r="S44" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8908,8 +8858,8 @@
       <c r="B45" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>165</v>
+      <c r="C45" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>59</v>
@@ -8920,9 +8870,7 @@
       <c r="F45" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="K45" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K45" s="12"/>
       <c r="L45" s="15" t="n">
         <v>2</v>
       </c>
@@ -8940,10 +8888,10 @@
         <v>15</v>
       </c>
       <c r="S45" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
         <v>24</v>
       </c>
@@ -8959,7 +8907,7 @@
       <c r="E46" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F46" s="33" t="s">
+      <c r="F46" s="32" t="s">
         <v>207</v>
       </c>
       <c r="L46" s="9" t="n">
@@ -8992,7 +8940,7 @@
         <v>208</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>59</v>
@@ -9036,7 +8984,7 @@
         <v>209</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>59</v>
@@ -9080,7 +9028,7 @@
         <v>210</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>59</v>
@@ -9124,7 +9072,7 @@
         <v>211</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>59</v>
@@ -9168,7 +9116,7 @@
         <v>213</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>59</v>
@@ -9211,8 +9159,8 @@
       <c r="B52" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>165</v>
+      <c r="C52" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>59</v>
@@ -9223,9 +9171,7 @@
       <c r="F52" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="K52" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K52" s="12"/>
       <c r="L52" s="15" t="n">
         <v>2</v>
       </c>
@@ -9248,7 +9194,7 @@
         <v>15</v>
       </c>
       <c r="S52" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9258,8 +9204,8 @@
       <c r="B53" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>165</v>
+      <c r="C53" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>59</v>
@@ -9270,9 +9216,7 @@
       <c r="F53" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="K53" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K53" s="12"/>
       <c r="L53" s="15" t="n">
         <v>2</v>
       </c>
@@ -9295,7 +9239,7 @@
         <v>15</v>
       </c>
       <c r="S53" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9305,8 +9249,8 @@
       <c r="B54" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>165</v>
+      <c r="C54" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>59</v>
@@ -9317,9 +9261,7 @@
       <c r="F54" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="K54" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K54" s="12"/>
       <c r="L54" s="15" t="n">
         <v>2</v>
       </c>
@@ -9342,7 +9284,7 @@
         <v>15</v>
       </c>
       <c r="S54" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9386,7 +9328,7 @@
         <v>15</v>
       </c>
       <c r="S55" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9430,7 +9372,7 @@
         <v>15</v>
       </c>
       <c r="S56" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9474,7 +9416,7 @@
         <v>15</v>
       </c>
       <c r="S57" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9484,8 +9426,8 @@
       <c r="B58" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>165</v>
+      <c r="C58" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>59</v>
@@ -9496,9 +9438,7 @@
       <c r="F58" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="K58" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K58" s="12"/>
       <c r="L58" s="15" t="n">
         <v>2</v>
       </c>
@@ -9521,7 +9461,7 @@
         <v>15</v>
       </c>
       <c r="S58" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9531,8 +9471,8 @@
       <c r="B59" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>165</v>
+      <c r="C59" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>59</v>
@@ -9543,9 +9483,7 @@
       <c r="F59" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="K59" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K59" s="12"/>
       <c r="L59" s="15" t="n">
         <v>2</v>
       </c>
@@ -9568,7 +9506,7 @@
         <v>15</v>
       </c>
       <c r="S59" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9578,8 +9516,8 @@
       <c r="B60" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>165</v>
+      <c r="C60" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>59</v>
@@ -9590,9 +9528,7 @@
       <c r="F60" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="K60" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K60" s="12"/>
       <c r="L60" s="15" t="n">
         <v>2</v>
       </c>
@@ -9615,7 +9551,7 @@
         <v>15</v>
       </c>
       <c r="S60" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9659,7 +9595,7 @@
         <v>15</v>
       </c>
       <c r="S61" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9703,7 +9639,7 @@
         <v>15</v>
       </c>
       <c r="S62" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9747,7 +9683,7 @@
         <v>15</v>
       </c>
       <c r="S63" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9757,8 +9693,8 @@
       <c r="B64" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>165</v>
+      <c r="C64" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>59</v>
@@ -9769,9 +9705,7 @@
       <c r="F64" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="K64" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K64" s="12"/>
       <c r="L64" s="15" t="n">
         <v>2</v>
       </c>
@@ -9789,7 +9723,7 @@
         <v>15</v>
       </c>
       <c r="S64" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9808,7 +9742,7 @@
       <c r="E65" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F65" s="33" t="s">
+      <c r="F65" s="32" t="s">
         <v>178</v>
       </c>
       <c r="L65" s="9" t="n">
@@ -9841,7 +9775,7 @@
         <v>208</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>59</v>
@@ -9885,7 +9819,7 @@
         <v>209</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>59</v>
@@ -9929,7 +9863,7 @@
         <v>210</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>59</v>
@@ -9973,7 +9907,7 @@
         <v>211</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>59</v>
@@ -10017,7 +9951,7 @@
         <v>213</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>59</v>
@@ -10060,8 +9994,8 @@
       <c r="B71" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>165</v>
+      <c r="C71" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>59</v>
@@ -10076,9 +10010,7 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
-      <c r="K71" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K71" s="12"/>
       <c r="L71" s="9" t="n">
         <v>2</v>
       </c>
@@ -10098,7 +10030,7 @@
         <v>15</v>
       </c>
       <c r="S71" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10144,7 +10076,7 @@
         <v>15</v>
       </c>
       <c r="S72" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10154,8 +10086,8 @@
       <c r="B73" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>165</v>
+      <c r="C73" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>59</v>
@@ -10166,9 +10098,7 @@
       <c r="F73" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="K73" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K73" s="12"/>
       <c r="L73" s="9" t="n">
         <v>2</v>
       </c>
@@ -10191,7 +10121,7 @@
         <v>15</v>
       </c>
       <c r="S73" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10201,8 +10131,8 @@
       <c r="B74" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>165</v>
+      <c r="C74" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>59</v>
@@ -10213,9 +10143,7 @@
       <c r="F74" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="K74" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K74" s="12"/>
       <c r="L74" s="9" t="n">
         <v>2</v>
       </c>
@@ -10238,7 +10166,7 @@
         <v>15</v>
       </c>
       <c r="S74" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10248,8 +10176,8 @@
       <c r="B75" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>165</v>
+      <c r="C75" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>59</v>
@@ -10260,9 +10188,7 @@
       <c r="F75" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="K75" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K75" s="12"/>
       <c r="L75" s="9" t="n">
         <v>2</v>
       </c>
@@ -10285,7 +10211,7 @@
         <v>15</v>
       </c>
       <c r="S75" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10329,7 +10255,7 @@
         <v>15</v>
       </c>
       <c r="S76" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10373,7 +10299,7 @@
         <v>15</v>
       </c>
       <c r="S77" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10417,7 +10343,7 @@
         <v>15</v>
       </c>
       <c r="S78" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10427,8 +10353,8 @@
       <c r="B79" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C79" s="12" t="s">
-        <v>165</v>
+      <c r="C79" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>59</v>
@@ -10439,9 +10365,7 @@
       <c r="F79" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K79" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K79" s="12"/>
       <c r="L79" s="9" t="n">
         <v>2</v>
       </c>
@@ -10459,7 +10383,7 @@
         <v>15</v>
       </c>
       <c r="S79" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10511,7 +10435,7 @@
         <v>224</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>59</v>
@@ -10544,7 +10468,7 @@
         <v>15</v>
       </c>
       <c r="S81" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10555,7 +10479,7 @@
         <v>225</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>59</v>
@@ -10588,7 +10512,7 @@
         <v>15</v>
       </c>
       <c r="S82" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10599,7 +10523,7 @@
         <v>227</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>59</v>
@@ -10632,7 +10556,7 @@
         <v>15</v>
       </c>
       <c r="S83" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10643,7 +10567,7 @@
         <v>228</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>59</v>
@@ -10676,7 +10600,7 @@
         <v>15</v>
       </c>
       <c r="S84" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" s="12" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10686,8 +10610,8 @@
       <c r="B85" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C85" s="12" t="s">
-        <v>165</v>
+      <c r="C85" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>59</v>
@@ -10698,9 +10622,6 @@
       <c r="F85" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="K85" s="12" t="n">
-        <v>1</v>
-      </c>
       <c r="L85" s="9" t="n">
         <v>2</v>
       </c>
@@ -10720,7 +10641,7 @@
         <v>15</v>
       </c>
       <c r="S85" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10761,7 +10682,7 @@
         <v>15</v>
       </c>
       <c r="S86" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10771,8 +10692,8 @@
       <c r="B87" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C87" s="12" t="s">
-        <v>165</v>
+      <c r="C87" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>59</v>
@@ -10783,9 +10704,7 @@
       <c r="F87" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="K87" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K87" s="12"/>
       <c r="L87" s="9" t="n">
         <v>2</v>
       </c>
@@ -10808,7 +10727,7 @@
         <v>15</v>
       </c>
       <c r="S87" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10818,8 +10737,8 @@
       <c r="B88" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>165</v>
+      <c r="C88" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>59</v>
@@ -10830,9 +10749,7 @@
       <c r="F88" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="K88" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K88" s="12"/>
       <c r="L88" s="9" t="n">
         <v>2</v>
       </c>
@@ -10855,7 +10772,7 @@
         <v>15</v>
       </c>
       <c r="S88" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10865,8 +10782,8 @@
       <c r="B89" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C89" s="12" t="s">
-        <v>165</v>
+      <c r="C89" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>59</v>
@@ -10877,9 +10794,7 @@
       <c r="F89" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="K89" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K89" s="12"/>
       <c r="L89" s="9" t="n">
         <v>2</v>
       </c>
@@ -10902,7 +10817,7 @@
         <v>15</v>
       </c>
       <c r="S89" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10943,7 +10858,7 @@
         <v>15</v>
       </c>
       <c r="S90" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10984,7 +10899,7 @@
         <v>15</v>
       </c>
       <c r="S91" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11025,7 +10940,7 @@
         <v>15</v>
       </c>
       <c r="S92" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11035,8 +10950,8 @@
       <c r="B93" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C93" s="12" t="s">
-        <v>165</v>
+      <c r="C93" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>59</v>
@@ -11047,9 +10962,7 @@
       <c r="F93" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K93" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K93" s="12"/>
       <c r="L93" s="9" t="n">
         <v>2</v>
       </c>
@@ -11067,7 +10980,7 @@
         <v>15</v>
       </c>
       <c r="S93" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11119,7 +11032,7 @@
         <v>224</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>59</v>
@@ -11152,7 +11065,7 @@
         <v>15</v>
       </c>
       <c r="S95" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11163,7 +11076,7 @@
         <v>225</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>59</v>
@@ -11196,7 +11109,7 @@
         <v>15</v>
       </c>
       <c r="S96" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11207,7 +11120,7 @@
         <v>227</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>59</v>
@@ -11240,7 +11153,7 @@
         <v>15</v>
       </c>
       <c r="S97" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11251,7 +11164,7 @@
         <v>228</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>59</v>
@@ -11284,77 +11197,58 @@
         <v>15</v>
       </c>
       <c r="S98" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="99" s="34" customFormat="true" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" s="33" customFormat="true" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B99" s="34" t="s">
+      <c r="B99" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="C99" s="34" t="s">
+      <c r="C99" s="33" t="s">
         <v>230</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E99" s="34" t="s">
+      <c r="E99" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="F99" s="35" t="s">
+      <c r="F99" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="G99" s="36" t="s">
+      <c r="G99" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H99" s="0" t="s">
+      <c r="H99" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I99" s="34" t="s">
+      <c r="I99" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="J99" s="37" t="s">
+      <c r="J99" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="L99" s="34" t="n">
+      <c r="L99" s="33" t="n">
         <v>2</v>
       </c>
       <c r="N99" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="Q99" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="R99" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="S99" s="0"/>
-    </row>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="Q99" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="R99" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:S98"/>
+  <autoFilter ref="A1:S99"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/CCBZA/Data/Template_L&T_November.xlsx
+++ b/Projects/CCBZA/Data/Template_L&T_November.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="236">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -1157,7 +1157,7 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1648,7 +1648,7 @@
   </sheetPr>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
@@ -4681,7 +4681,7 @@
   </sheetPr>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -6091,7 +6091,7 @@
   </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -6234,7 +6234,7 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6881,12 +6881,12 @@
   </sheetPr>
   <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K29" activeCellId="0" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="B106" activeCellId="0" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6902,7 +6902,10 @@
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.6"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.9813953488372"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10851,6 +10854,9 @@
       <c r="O90" s="12" t="s">
         <v>113</v>
       </c>
+      <c r="P90" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="Q90" s="12" t="s">
         <v>16</v>
       </c>
@@ -10892,6 +10898,9 @@
       <c r="O91" s="12" t="s">
         <v>113</v>
       </c>
+      <c r="P91" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="Q91" s="12" t="s">
         <v>16</v>
       </c>
@@ -10932,6 +10941,9 @@
       </c>
       <c r="O92" s="12" t="s">
         <v>113</v>
+      </c>
+      <c r="P92" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="Q92" s="12" t="s">
         <v>16</v>

--- a/Projects/CCBZA/Data/Template_L&T_November.xlsx
+++ b/Projects/CCBZA/Data/Template_L&T_November.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
     <sheet name="Availability" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$98</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$99</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Price!$A$1:$Q$76</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="lkjj" vbProcedure="false">Price!$A$1:$Q$50</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Price!$A$1:$Q$76</definedName>
@@ -25,6 +25,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Price!$A$1:$Q$76</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Price!$A$1:$Q$76</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Price!$A$1:$Q$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Price!$A$1:$Q$76</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="dcsvx" vbProcedure="false">Availability!$A$1:$S$70</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="hgf" vbProcedure="false">Availability!$A$1:$S$70</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="ykmjh" vbProcedure="false">Availability!$A$1:$S$98</definedName>
@@ -32,9 +33,10 @@
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$S$98</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$S$70</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_hk" vbProcedure="false">Availability!$A$1:$S$98</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$99</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$98</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$98</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$99</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$S$98</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$S$98</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1103,25 +1105,24 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.0232558139535"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5023255813953"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.4558139534884"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.26046511627907"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.2744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.0558139534884"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.5348837209302"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="43.3162790697674"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.2418604651163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="38.6418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.3767441860465"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.6093023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.6883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.38604651162791"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.1348837209302"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.2883720930233"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.3953488372093"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="44.6697674418605"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.9813953488372"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="39.7488372093023"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,15 +1536,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.2139534883721"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.50697674418605"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.38604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.9488372093023"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.62790697674419"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.50697674418605"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,24 +1604,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.7023255813953"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="173.395348837209"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.64651162790698"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.50697674418605"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.64651162790698"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.50697674418605"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.8883720930233"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="99.9255813953488"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.0558139534884"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.0744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="178.688372093023"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.62790697674419"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.62790697674419"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="39.9953488372093"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="102.879069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,7 +1708,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1748,7 +1747,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1787,7 +1786,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1826,7 +1825,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1865,7 +1864,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1943,7 +1942,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1959,11 +1958,9 @@
       <c r="E9" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="0"/>
       <c r="J9" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="K9" s="0"/>
       <c r="L9" s="5" t="s">
         <v>62</v>
       </c>
@@ -1980,7 +1977,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
@@ -1996,7 +1993,6 @@
       <c r="E10" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="0"/>
       <c r="J10" s="5" t="n">
         <v>22</v>
       </c>
@@ -2019,7 +2015,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -2035,7 +2031,6 @@
       <c r="E11" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="0"/>
       <c r="J11" s="5" t="n">
         <v>22</v>
       </c>
@@ -2058,7 +2053,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
@@ -2074,7 +2069,6 @@
       <c r="E12" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="0"/>
       <c r="J12" s="5" t="n">
         <v>19</v>
       </c>
@@ -2100,7 +2094,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
@@ -2129,7 +2123,6 @@
       <c r="M13" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N13" s="0"/>
       <c r="O13" s="5" t="s">
         <v>16</v>
       </c>
@@ -2140,7 +2133,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -2169,7 +2162,6 @@
       <c r="M14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N14" s="0"/>
       <c r="O14" s="5" t="s">
         <v>16</v>
       </c>
@@ -2180,7 +2172,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
@@ -2209,7 +2201,6 @@
       <c r="M15" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N15" s="0"/>
       <c r="O15" s="5" t="s">
         <v>16</v>
       </c>
@@ -2220,7 +2211,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
@@ -2249,7 +2240,6 @@
       <c r="M16" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N16" s="0"/>
       <c r="O16" s="5" t="s">
         <v>16</v>
       </c>
@@ -2260,7 +2250,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2289,7 +2279,6 @@
       <c r="M17" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N17" s="0"/>
       <c r="O17" s="5" t="s">
         <v>16</v>
       </c>
@@ -2300,7 +2289,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -2329,7 +2318,6 @@
       <c r="M18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N18" s="0"/>
       <c r="O18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2340,7 +2328,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2356,18 +2344,15 @@
       <c r="E19" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="0"/>
       <c r="J19" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="K19" s="0"/>
       <c r="L19" s="5" t="s">
         <v>62</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N19" s="0"/>
       <c r="O19" s="5" t="s">
         <v>16</v>
       </c>
@@ -2378,7 +2363,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
@@ -2394,7 +2379,6 @@
       <c r="E20" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="0"/>
       <c r="J20" s="5" t="n">
         <v>22</v>
       </c>
@@ -2407,7 +2391,6 @@
       <c r="M20" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N20" s="0"/>
       <c r="O20" s="5" t="s">
         <v>16</v>
       </c>
@@ -2418,7 +2401,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
@@ -2434,7 +2417,6 @@
       <c r="E21" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="0"/>
       <c r="J21" s="5" t="n">
         <v>22</v>
       </c>
@@ -2447,7 +2429,6 @@
       <c r="M21" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="0"/>
       <c r="O21" s="5" t="s">
         <v>16</v>
       </c>
@@ -2458,7 +2439,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
@@ -2474,7 +2455,6 @@
       <c r="E22" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="0"/>
       <c r="J22" s="5" t="n">
         <v>19</v>
       </c>
@@ -2500,7 +2480,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
@@ -2529,7 +2509,6 @@
       <c r="M23" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="0"/>
       <c r="O23" s="5" t="s">
         <v>16</v>
       </c>
@@ -2540,7 +2519,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -2569,7 +2548,6 @@
       <c r="M24" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="N24" s="0"/>
       <c r="O24" s="5" t="s">
         <v>16</v>
       </c>
@@ -2580,7 +2558,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
@@ -2609,7 +2587,6 @@
       <c r="M25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="N25" s="0"/>
       <c r="O25" s="5" t="s">
         <v>16</v>
       </c>
@@ -2620,7 +2597,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -2636,7 +2613,6 @@
       <c r="E26" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="0"/>
       <c r="J26" s="5" t="n">
         <v>15.5</v>
       </c>
@@ -2649,7 +2625,6 @@
       <c r="M26" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="N26" s="0"/>
       <c r="O26" s="5" t="s">
         <v>16</v>
       </c>
@@ -2660,7 +2635,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -2676,7 +2651,6 @@
       <c r="E27" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="0"/>
       <c r="J27" s="5" t="n">
         <v>15.5</v>
       </c>
@@ -2689,7 +2663,6 @@
       <c r="M27" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="N27" s="0"/>
       <c r="O27" s="5" t="s">
         <v>16</v>
       </c>
@@ -4622,16 +4595,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.3302325581395"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.8883720930233"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.0558139534884"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.706976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.9953488372093"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6744186046512"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4831,7 +4803,7 @@
       <c r="I7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -4853,11 +4825,8 @@
       <c r="G8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="AMJ8" s="0"/>
-    </row>
-    <row r="9" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
@@ -4882,10 +4851,8 @@
       <c r="H9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="0"/>
-      <c r="AMJ9" s="0"/>
-    </row>
-    <row r="10" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -4907,11 +4874,8 @@
       <c r="G10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
-      <c r="AMJ10" s="0"/>
-    </row>
-    <row r="11" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
@@ -4927,17 +4891,14 @@
       <c r="E11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="0"/>
       <c r="G11" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="0"/>
-      <c r="AMJ11" s="0"/>
-    </row>
-    <row r="12" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
@@ -4962,10 +4923,8 @@
       <c r="H12" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="0"/>
-      <c r="AMJ12" s="0"/>
-    </row>
-    <row r="13" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
@@ -4990,10 +4949,8 @@
       <c r="H13" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="0"/>
-      <c r="AMJ13" s="0"/>
-    </row>
-    <row r="14" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
@@ -5018,10 +4975,8 @@
       <c r="H14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="0"/>
-      <c r="AMJ14" s="0"/>
-    </row>
-    <row r="15" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
@@ -5037,17 +4992,14 @@
       <c r="E15" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="0"/>
       <c r="G15" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="0"/>
-      <c r="AMJ15" s="0"/>
-    </row>
-    <row r="16" s="5" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -5072,10 +5024,8 @@
       <c r="H16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="0"/>
-      <c r="AMJ16" s="0"/>
-    </row>
-    <row r="17" s="5" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
@@ -5100,10 +5050,8 @@
       <c r="H17" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="0"/>
-      <c r="AMJ17" s="0"/>
-    </row>
-    <row r="18" s="5" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
@@ -5128,10 +5076,8 @@
       <c r="H18" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I18" s="0"/>
-      <c r="AMJ18" s="0"/>
-    </row>
-    <row r="19" s="5" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>33</v>
       </c>
@@ -5156,10 +5102,8 @@
       <c r="H19" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I19" s="0"/>
-      <c r="AMJ19" s="0"/>
-    </row>
-    <row r="20" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
@@ -5184,8 +5128,6 @@
       <c r="H20" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="0"/>
-      <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
@@ -6069,25 +6011,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.0372093023256"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.4883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.7488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.9813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.4139534883721"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.4418604651163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.4604651162791"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.9813953488372"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.4139534883721"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.4418604651163"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.38604651162791"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.4976744186047"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.3488372093023"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.5488372093023"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.8883720930233"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.1953488372093"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="36.5488372093023"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.8883720930233"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.50697674418605"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.2139534883721"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6212,17 +6153,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.2558139534884"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.50697674418605"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.38604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.8883720930233"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.62790697674419"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.50697674418605"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9953488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.2139534883721"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6870,24 +6810,29 @@
   </sheetPr>
   <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.246511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.0511627906977"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.9348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.3767441860465"/>
     <col collapsed="false" hidden="true" max="5" min="4" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="225.572093023256"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="136.474418604651"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.8744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="136.474418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="232.46511627907"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="140.660465116279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="140.660465116279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.5488372093023"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.8232558139535"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.2744186046512"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.1860465116279"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="140.660465116279"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8738,6 +8683,9 @@
       <c r="F42" s="12" t="s">
         <v>172</v>
       </c>
+      <c r="K42" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L42" s="5" t="n">
         <v>2</v>
       </c>
@@ -8782,6 +8730,9 @@
       <c r="F43" s="12" t="s">
         <v>172</v>
       </c>
+      <c r="K43" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L43" s="5" t="n">
         <v>2</v>
       </c>
@@ -8826,6 +8777,9 @@
       <c r="F44" s="12" t="s">
         <v>172</v>
       </c>
+      <c r="K44" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L44" s="5" t="n">
         <v>2</v>
       </c>
@@ -11269,7 +11223,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S98"/>
+  <autoFilter ref="A1:S99"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
